--- a/raw_data/local_continuum/processed/Cleveland.xlsx
+++ b/raw_data/local_continuum/processed/Cleveland.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd Fojo\CloudStation\Projects\Ending HIV\Ending_HIV\raw_data\local_continuum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd Fojo\CloudStation\Projects\Ending HIV\Ending_HIV\raw_data\local_continuum\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,6 @@
     <sheet name="Indicator definitions" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
   <si>
     <t>Total</t>
   </si>
@@ -283,6 +282,9 @@
   </si>
   <si>
     <t>https://odh.ohio.gov/wps/wcm/connect/gov/c36c5c0e-f795-476b-9ebe-4d39946406fa/Region+3+HIV+Care+Continuum+2018.pdf?MOD=AJPERES&amp;CONVERT_TO=url&amp;CACHEID=ROOTWORKSPACE.Z18_M1HGGIK0N0JO00QO9DDDDM3000-c36c5c0e-f795-476b-9ebe-4d39946406fa-niOebGY</t>
+  </si>
+  <si>
+    <t>Ashtabula, which is not in MSA, is &lt;3% of prevalent cases</t>
   </si>
 </sst>
 </file>
@@ -842,7 +844,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="B21:D23"/>
+      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2175,6 +2177,9 @@
       <c r="H20" s="38"/>
       <c r="I20" s="13"/>
       <c r="J20" s="12"/>
+      <c r="K20" t="s">
+        <v>72</v>
+      </c>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
       <c r="O20" s="13"/>
